--- a/web/admin/asset/download/new_template_apartment.xlsx
+++ b/web/admin/asset/download/new_template_apartment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\xampp\htdocs\www\real\real_backend\web\admin\asset\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thach\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>[VI] Tên</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Hình vị trí</t>
   </si>
   <si>
-    <t>Hình đại diện</t>
-  </si>
-  <si>
-    <t>Hinh ảnh</t>
-  </si>
-  <si>
     <t>Số phòng ngủ</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>[EN] Seo mô tả</t>
   </si>
   <si>
-    <t>Sản phẩm mới</t>
-  </si>
-  <si>
     <t>new product</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>2016/05/574471d17ee88_1464103377.png,2016/05/574471d17ee88_1464103377.png,2016/05/574471d17ee88_1464103377.png,2016/05/574471d17ee88_1464103377.png,2016/05/574471d17ee88_1464103377.png</t>
-  </si>
-  <si>
     <t>Căn hộ</t>
   </si>
   <si>
@@ -183,6 +171,27 @@
   </si>
   <si>
     <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Hình đại diện (1 hình duy nhất)</t>
+  </si>
+  <si>
+    <t>Bộ sưu tập</t>
+  </si>
+  <si>
+    <t>Sơ đồ mặt bằng</t>
+  </si>
+  <si>
+    <t>Phối cảnh</t>
+  </si>
+  <si>
+    <t>2016/05/574471d17ee88_1464103377.png,2016/05/574471d17ee88_1464103377.png</t>
+  </si>
+  <si>
+    <t>2016/05/574471d17ee88_1464103377.png,2016/05/574471d17ee88_1464103377.png,2016/05/574471d17ee88_1464103377.png</t>
+  </si>
+  <si>
+    <t>Sản phẩm mới 2</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -269,6 +278,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,9 +572,9 @@
     <col min="12" max="12" width="21.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -571,19 +583,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -607,78 +619,84 @@
         <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -714,70 +732,76 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
         <v>4</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>3</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>3</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AJ2" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AK2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="s">
         <v>44</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
